--- a/INTLINE/data/144/SCB/IndKaputnSNI07Kv.xlsx
+++ b/INTLINE/data/144/SCB/IndKaputnSNI07Kv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <x:si>
     <x:t>Industrial capacity utilisation, actual utilisation, calendar adjusted and seasonally adjusted, percent by industrial classification NACE Rev. 2 and quarter</x:t>
   </x:si>
@@ -403,6 +403,9 @@
     <x:t>2021K4</x:t>
   </x:si>
   <x:si>
+    <x:t>2022K1</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">B+C mining, quarrying, manufacturing </x:t>
   </x:si>
   <x:si>
@@ -427,7 +430,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220221 08:00</x:t>
+    <x:t>20220519 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -439,7 +442,7 @@
     <x:t>Contact:</x:t>
   </x:si>
   <x:si>
-    <x:t>(SCB) Statistikservice, Statistics Sweden</x:t>
+    <x:t xml:space="preserve"> Statistikservice, Statistics Sweden</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> +46 010-479 50 00</x:t>
@@ -880,21 +883,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:DY50"/>
+  <x:dimension ref="A1:DZ50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="129" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="130" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:129">
+    <x:row r="1" spans="1:130">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:129">
+    <x:row r="3" spans="1:130">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1279,10 +1282,13 @@
       <x:c r="DY3" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:129">
+      <x:c r="DZ3" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:130">
       <x:c r="A4" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
         <x:v>87.5</x:v>
@@ -1291,13 +1297,13 @@
         <x:v>87.5</x:v>
       </x:c>
       <x:c r="D4" s="3" t="n">
-        <x:v>86.5</x:v>
+        <x:v>86.4</x:v>
       </x:c>
       <x:c r="E4" s="3" t="n">
         <x:v>87.4</x:v>
       </x:c>
       <x:c r="F4" s="3" t="n">
-        <x:v>85.5</x:v>
+        <x:v>85.4</x:v>
       </x:c>
       <x:c r="G4" s="3" t="n">
         <x:v>83.8</x:v>
@@ -1378,7 +1384,7 @@
         <x:v>86.3</x:v>
       </x:c>
       <x:c r="AG4" s="3" t="n">
-        <x:v>88.4</x:v>
+        <x:v>88.3</x:v>
       </x:c>
       <x:c r="AH4" s="3" t="n">
         <x:v>89.1</x:v>
@@ -1546,7 +1552,7 @@
         <x:v>88.2</x:v>
       </x:c>
       <x:c r="CK4" s="3" t="n">
-        <x:v>87.7</x:v>
+        <x:v>87.8</x:v>
       </x:c>
       <x:c r="CL4" s="3" t="n">
         <x:v>88.1</x:v>
@@ -1576,7 +1582,7 @@
         <x:v>88.3</x:v>
       </x:c>
       <x:c r="CU4" s="3" t="n">
-        <x:v>88.8</x:v>
+        <x:v>88.7</x:v>
       </x:c>
       <x:c r="CV4" s="3" t="n">
         <x:v>88.4</x:v>
@@ -1591,13 +1597,13 @@
         <x:v>88.4</x:v>
       </x:c>
       <x:c r="CZ4" s="3" t="n">
-        <x:v>88.8</x:v>
+        <x:v>88.9</x:v>
       </x:c>
       <x:c r="DA4" s="3" t="n">
         <x:v>88.9</x:v>
       </x:c>
       <x:c r="DB4" s="3" t="n">
-        <x:v>89.4</x:v>
+        <x:v>89.3</x:v>
       </x:c>
       <x:c r="DC4" s="3" t="n">
         <x:v>88.9</x:v>
@@ -1651,10 +1657,10 @@
         <x:v>82.2</x:v>
       </x:c>
       <x:c r="DT4" s="3" t="n">
-        <x:v>86.2</x:v>
+        <x:v>86.1</x:v>
       </x:c>
       <x:c r="DU4" s="3" t="n">
-        <x:v>88</x:v>
+        <x:v>88.1</x:v>
       </x:c>
       <x:c r="DV4" s="3" t="n">
         <x:v>89.6</x:v>
@@ -1663,18 +1669,21 @@
         <x:v>91.1</x:v>
       </x:c>
       <x:c r="DX4" s="3" t="n">
-        <x:v>90.7</x:v>
+        <x:v>90.6</x:v>
       </x:c>
       <x:c r="DY4" s="3" t="n">
-        <x:v>90.8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:129">
+        <x:v>90.3</x:v>
+      </x:c>
+      <x:c r="DZ4" s="3" t="n">
+        <x:v>90.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:130">
       <x:c r="A5" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>80.6</x:v>
+        <x:v>80.5</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>80.8</x:v>
@@ -1683,7 +1692,7 @@
         <x:v>79.8</x:v>
       </x:c>
       <x:c r="E5" s="3" t="n">
-        <x:v>80.9</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F5" s="3" t="n">
         <x:v>80.9</x:v>
@@ -1701,7 +1710,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="K5" s="3" t="n">
-        <x:v>79.9</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="L5" s="3" t="n">
         <x:v>80.3</x:v>
@@ -1719,7 +1728,7 @@
         <x:v>81.2</x:v>
       </x:c>
       <x:c r="Q5" s="3" t="n">
-        <x:v>81.9</x:v>
+        <x:v>81.8</x:v>
       </x:c>
       <x:c r="R5" s="3" t="n">
         <x:v>81.5</x:v>
@@ -1731,22 +1740,22 @@
         <x:v>82.2</x:v>
       </x:c>
       <x:c r="U5" s="3" t="n">
-        <x:v>82.3</x:v>
+        <x:v>82.2</x:v>
       </x:c>
       <x:c r="V5" s="3" t="n">
-        <x:v>82.9</x:v>
+        <x:v>82.8</x:v>
       </x:c>
       <x:c r="W5" s="3" t="n">
         <x:v>84.4</x:v>
       </x:c>
       <x:c r="X5" s="3" t="n">
-        <x:v>82.9</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="Y5" s="3" t="n">
         <x:v>82.5</x:v>
       </x:c>
       <x:c r="Z5" s="3" t="n">
-        <x:v>83.1</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="AA5" s="3" t="n">
         <x:v>83.5</x:v>
@@ -1758,10 +1767,10 @@
         <x:v>84.2</x:v>
       </x:c>
       <x:c r="AD5" s="3" t="n">
-        <x:v>84.3</x:v>
+        <x:v>84.4</x:v>
       </x:c>
       <x:c r="AE5" s="3" t="n">
-        <x:v>84.7</x:v>
+        <x:v>84.6</x:v>
       </x:c>
       <x:c r="AF5" s="3" t="n">
         <x:v>84.5</x:v>
@@ -1782,7 +1791,7 @@
         <x:v>86.5</x:v>
       </x:c>
       <x:c r="AL5" s="3" t="n">
-        <x:v>85.6</x:v>
+        <x:v>85.7</x:v>
       </x:c>
       <x:c r="AM5" s="3" t="n">
         <x:v>85.9</x:v>
@@ -1794,16 +1803,16 @@
         <x:v>85.8</x:v>
       </x:c>
       <x:c r="AP5" s="3" t="n">
-        <x:v>85.4</x:v>
+        <x:v>85.3</x:v>
       </x:c>
       <x:c r="AQ5" s="3" t="n">
         <x:v>85.2</x:v>
       </x:c>
       <x:c r="AR5" s="3" t="n">
-        <x:v>85.5</x:v>
+        <x:v>85.6</x:v>
       </x:c>
       <x:c r="AS5" s="3" t="n">
-        <x:v>85.5</x:v>
+        <x:v>85.4</x:v>
       </x:c>
       <x:c r="AT5" s="3" t="n">
         <x:v>86.9</x:v>
@@ -1812,10 +1821,10 @@
         <x:v>86.1</x:v>
       </x:c>
       <x:c r="AV5" s="3" t="n">
-        <x:v>85.6</x:v>
+        <x:v>85.7</x:v>
       </x:c>
       <x:c r="AW5" s="3" t="n">
-        <x:v>86.1</x:v>
+        <x:v>86.2</x:v>
       </x:c>
       <x:c r="AX5" s="3" t="n">
         <x:v>86</x:v>
@@ -1827,13 +1836,13 @@
         <x:v>86.7</x:v>
       </x:c>
       <x:c r="BA5" s="3" t="n">
-        <x:v>86.9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="BB5" s="3" t="n">
         <x:v>86.7</x:v>
       </x:c>
       <x:c r="BC5" s="3" t="n">
-        <x:v>86.7</x:v>
+        <x:v>86.8</x:v>
       </x:c>
       <x:c r="BD5" s="3" t="n">
         <x:v>86.6</x:v>
@@ -1842,7 +1851,7 @@
         <x:v>86.2</x:v>
       </x:c>
       <x:c r="BF5" s="3" t="n">
-        <x:v>86.7</x:v>
+        <x:v>86.6</x:v>
       </x:c>
       <x:c r="BG5" s="3" t="n">
         <x:v>86.7</x:v>
@@ -1851,34 +1860,34 @@
         <x:v>86.2</x:v>
       </x:c>
       <x:c r="BI5" s="3" t="n">
+        <x:v>86.4</x:v>
+      </x:c>
+      <x:c r="BJ5" s="3" t="n">
         <x:v>86.5</x:v>
       </x:c>
-      <x:c r="BJ5" s="3" t="n">
-        <x:v>86.4</x:v>
-      </x:c>
       <x:c r="BK5" s="3" t="n">
-        <x:v>86</x:v>
+        <x:v>85.9</x:v>
       </x:c>
       <x:c r="BL5" s="3" t="n">
         <x:v>86.7</x:v>
       </x:c>
       <x:c r="BM5" s="3" t="n">
-        <x:v>86.8</x:v>
+        <x:v>86.7</x:v>
       </x:c>
       <x:c r="BN5" s="3" t="n">
-        <x:v>83.9</x:v>
+        <x:v>83.8</x:v>
       </x:c>
       <x:c r="BO5" s="3" t="n">
-        <x:v>84</x:v>
+        <x:v>84.1</x:v>
       </x:c>
       <x:c r="BP5" s="3" t="n">
-        <x:v>84.2</x:v>
+        <x:v>84.3</x:v>
       </x:c>
       <x:c r="BQ5" s="3" t="n">
         <x:v>83.5</x:v>
       </x:c>
       <x:c r="BR5" s="3" t="n">
-        <x:v>83.9</x:v>
+        <x:v>83.8</x:v>
       </x:c>
       <x:c r="BS5" s="3" t="n">
         <x:v>84.4</x:v>
@@ -1899,10 +1908,10 @@
         <x:v>84.2</x:v>
       </x:c>
       <x:c r="BY5" s="3" t="n">
+        <x:v>83.8</x:v>
+      </x:c>
+      <x:c r="BZ5" s="3" t="n">
         <x:v>83.7</x:v>
-      </x:c>
-      <x:c r="BZ5" s="3" t="n">
-        <x:v>83.6</x:v>
       </x:c>
       <x:c r="CA5" s="3" t="n">
         <x:v>83.6</x:v>
@@ -1917,7 +1926,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="CE5" s="3" t="n">
-        <x:v>85.3</x:v>
+        <x:v>85.2</x:v>
       </x:c>
       <x:c r="CF5" s="3" t="n">
         <x:v>84.5</x:v>
@@ -1938,10 +1947,10 @@
         <x:v>83.7</x:v>
       </x:c>
       <x:c r="CL5" s="3" t="n">
-        <x:v>82.9</x:v>
+        <x:v>82.8</x:v>
       </x:c>
       <x:c r="CM5" s="3" t="n">
-        <x:v>83</x:v>
+        <x:v>83.1</x:v>
       </x:c>
       <x:c r="CN5" s="3" t="n">
         <x:v>82.4</x:v>
@@ -1971,10 +1980,10 @@
         <x:v>82.9</x:v>
       </x:c>
       <x:c r="CW5" s="3" t="n">
-        <x:v>82.7</x:v>
+        <x:v>82.8</x:v>
       </x:c>
       <x:c r="CX5" s="3" t="n">
-        <x:v>83</x:v>
+        <x:v>83.1</x:v>
       </x:c>
       <x:c r="CY5" s="3" t="n">
         <x:v>81.4</x:v>
@@ -1986,105 +1995,108 @@
         <x:v>82.2</x:v>
       </x:c>
       <x:c r="DB5" s="3" t="n">
-        <x:v>81.6</x:v>
+        <x:v>81.8</x:v>
       </x:c>
       <x:c r="DC5" s="3" t="n">
-        <x:v>82.6</x:v>
+        <x:v>82.4</x:v>
       </x:c>
       <x:c r="DD5" s="3" t="n">
-        <x:v>82.5</x:v>
+        <x:v>82.4</x:v>
       </x:c>
       <x:c r="DE5" s="3" t="n">
         <x:v>81.8</x:v>
       </x:c>
       <x:c r="DF5" s="3" t="n">
-        <x:v>82.1</x:v>
+        <x:v>82.3</x:v>
       </x:c>
       <x:c r="DG5" s="3" t="n">
-        <x:v>84.5</x:v>
+        <x:v>84.2</x:v>
       </x:c>
       <x:c r="DH5" s="3" t="n">
         <x:v>83.2</x:v>
       </x:c>
       <x:c r="DI5" s="3" t="n">
-        <x:v>85.7</x:v>
+        <x:v>85.9</x:v>
       </x:c>
       <x:c r="DJ5" s="3" t="n">
-        <x:v>85.2</x:v>
+        <x:v>85.6</x:v>
       </x:c>
       <x:c r="DK5" s="3" t="n">
-        <x:v>86</x:v>
+        <x:v>85.4</x:v>
       </x:c>
       <x:c r="DL5" s="3" t="n">
+        <x:v>85.4</x:v>
+      </x:c>
+      <x:c r="DM5" s="3" t="n">
+        <x:v>86.5</x:v>
+      </x:c>
+      <x:c r="DN5" s="3" t="n">
+        <x:v>87.1</x:v>
+      </x:c>
+      <x:c r="DO5" s="3" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="DP5" s="3" t="n">
+        <x:v>87.3</x:v>
+      </x:c>
+      <x:c r="DQ5" s="3" t="n">
+        <x:v>87.2</x:v>
+      </x:c>
+      <x:c r="DR5" s="3" t="n">
+        <x:v>87.3</x:v>
+      </x:c>
+      <x:c r="DS5" s="3" t="n">
+        <x:v>82.9</x:v>
+      </x:c>
+      <x:c r="DT5" s="3" t="n">
+        <x:v>84.6</x:v>
+      </x:c>
+      <x:c r="DU5" s="3" t="n">
         <x:v>85.5</x:v>
       </x:c>
-      <x:c r="DM5" s="3" t="n">
-        <x:v>86.1</x:v>
-      </x:c>
-      <x:c r="DN5" s="3" t="n">
-        <x:v>86.4</x:v>
-      </x:c>
-      <x:c r="DO5" s="3" t="n">
-        <x:v>85.9</x:v>
-      </x:c>
-      <x:c r="DP5" s="3" t="n">
+      <x:c r="DV5" s="3" t="n">
         <x:v>87.5</x:v>
       </x:c>
-      <x:c r="DQ5" s="3" t="n">
+      <x:c r="DW5" s="3" t="n">
+        <x:v>90.1</x:v>
+      </x:c>
+      <x:c r="DX5" s="3" t="n">
+        <x:v>90.9</x:v>
+      </x:c>
+      <x:c r="DY5" s="3" t="n">
+        <x:v>89.9</x:v>
+      </x:c>
+      <x:c r="DZ5" s="3" t="n">
+        <x:v>89.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:130">
+      <x:c r="A6" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="n">
         <x:v>86.7</x:v>
-      </x:c>
-      <x:c r="DR5" s="3" t="n">
-        <x:v>86.3</x:v>
-      </x:c>
-      <x:c r="DS5" s="3" t="n">
-        <x:v>84.1</x:v>
-      </x:c>
-      <x:c r="DT5" s="3" t="n">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="DU5" s="3" t="n">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="DV5" s="3" t="n">
-        <x:v>86.2</x:v>
-      </x:c>
-      <x:c r="DW5" s="3" t="n">
-        <x:v>91.6</x:v>
-      </x:c>
-      <x:c r="DX5" s="3" t="n">
-        <x:v>91.4</x:v>
-      </x:c>
-      <x:c r="DY5" s="3" t="n">
-        <x:v>91.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:129">
-      <x:c r="A6" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="n">
-        <x:v>86.8</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>86.9</x:v>
       </x:c>
       <x:c r="D6" s="3" t="n">
-        <x:v>86.5</x:v>
+        <x:v>86.6</x:v>
       </x:c>
       <x:c r="E6" s="3" t="n">
-        <x:v>86</x:v>
+        <x:v>86.1</x:v>
       </x:c>
       <x:c r="F6" s="3" t="n">
-        <x:v>87.7</x:v>
+        <x:v>87.8</x:v>
       </x:c>
       <x:c r="G6" s="3" t="n">
-        <x:v>83.8</x:v>
+        <x:v>83.7</x:v>
       </x:c>
       <x:c r="H6" s="3" t="n">
         <x:v>82.6</x:v>
       </x:c>
       <x:c r="I6" s="3" t="n">
-        <x:v>82.2</x:v>
+        <x:v>82.3</x:v>
       </x:c>
       <x:c r="J6" s="3" t="n">
         <x:v>80.5</x:v>
@@ -2093,37 +2105,37 @@
         <x:v>79.6</x:v>
       </x:c>
       <x:c r="L6" s="3" t="n">
-        <x:v>79.5</x:v>
+        <x:v>79.4</x:v>
       </x:c>
       <x:c r="M6" s="3" t="n">
-        <x:v>79.2</x:v>
+        <x:v>79.3</x:v>
       </x:c>
       <x:c r="N6" s="3" t="n">
-        <x:v>80</x:v>
+        <x:v>80.1</x:v>
       </x:c>
       <x:c r="O6" s="3" t="n">
-        <x:v>82.3</x:v>
+        <x:v>82.2</x:v>
       </x:c>
       <x:c r="P6" s="3" t="n">
-        <x:v>83.9</x:v>
+        <x:v>83.8</x:v>
       </x:c>
       <x:c r="Q6" s="3" t="n">
-        <x:v>84.2</x:v>
+        <x:v>84.1</x:v>
       </x:c>
       <x:c r="R6" s="3" t="n">
         <x:v>86.1</x:v>
       </x:c>
       <x:c r="S6" s="3" t="n">
-        <x:v>85.1</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="T6" s="3" t="n">
         <x:v>85</x:v>
       </x:c>
       <x:c r="U6" s="3" t="n">
-        <x:v>85.9</x:v>
+        <x:v>85.8</x:v>
       </x:c>
       <x:c r="V6" s="3" t="n">
-        <x:v>87.1</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="W6" s="3" t="n">
         <x:v>86.6</x:v>
@@ -2141,70 +2153,70 @@
         <x:v>81.6</x:v>
       </x:c>
       <x:c r="AB6" s="3" t="n">
-        <x:v>83.4</x:v>
+        <x:v>83.3</x:v>
       </x:c>
       <x:c r="AC6" s="3" t="n">
-        <x:v>83.4</x:v>
+        <x:v>83.6</x:v>
       </x:c>
       <x:c r="AD6" s="3" t="n">
-        <x:v>84.2</x:v>
+        <x:v>84.5</x:v>
       </x:c>
       <x:c r="AE6" s="3" t="n">
-        <x:v>87.4</x:v>
+        <x:v>87.2</x:v>
       </x:c>
       <x:c r="AF6" s="3" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="AG6" s="3" t="n">
         <x:v>88.1</x:v>
       </x:c>
-      <x:c r="AG6" s="3" t="n">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="AH6" s="3" t="n">
-        <x:v>92</x:v>
+        <x:v>92.2</x:v>
       </x:c>
       <x:c r="AI6" s="3" t="n">
         <x:v>91.4</x:v>
       </x:c>
       <x:c r="AJ6" s="3" t="n">
-        <x:v>90.9</x:v>
+        <x:v>90.8</x:v>
       </x:c>
       <x:c r="AK6" s="3" t="n">
         <x:v>90</x:v>
       </x:c>
       <x:c r="AL6" s="3" t="n">
-        <x:v>88.6</x:v>
+        <x:v>88.7</x:v>
       </x:c>
       <x:c r="AM6" s="3" t="n">
-        <x:v>87.3</x:v>
+        <x:v>87.2</x:v>
       </x:c>
       <x:c r="AN6" s="3" t="n">
         <x:v>88.4</x:v>
       </x:c>
       <x:c r="AO6" s="3" t="n">
-        <x:v>89.3</x:v>
+        <x:v>89.1</x:v>
       </x:c>
       <x:c r="AP6" s="3" t="n">
         <x:v>89.9</x:v>
       </x:c>
       <x:c r="AQ6" s="3" t="n">
-        <x:v>89.5</x:v>
+        <x:v>89.6</x:v>
       </x:c>
       <x:c r="AR6" s="3" t="n">
-        <x:v>88.2</x:v>
+        <x:v>88.3</x:v>
       </x:c>
       <x:c r="AS6" s="3" t="n">
-        <x:v>87</x:v>
+        <x:v>86.9</x:v>
       </x:c>
       <x:c r="AT6" s="3" t="n">
         <x:v>83.4</x:v>
       </x:c>
       <x:c r="AU6" s="3" t="n">
-        <x:v>84.4</x:v>
+        <x:v>84.5</x:v>
       </x:c>
       <x:c r="AV6" s="3" t="n">
-        <x:v>84.1</x:v>
+        <x:v>84.2</x:v>
       </x:c>
       <x:c r="AW6" s="3" t="n">
-        <x:v>83.9</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="AX6" s="3" t="n">
         <x:v>83.1</x:v>
@@ -2216,25 +2228,25 @@
         <x:v>82.7</x:v>
       </x:c>
       <x:c r="BA6" s="3" t="n">
-        <x:v>82.4</x:v>
+        <x:v>82.5</x:v>
       </x:c>
       <x:c r="BB6" s="3" t="n">
         <x:v>83</x:v>
       </x:c>
       <x:c r="BC6" s="3" t="n">
-        <x:v>82.2</x:v>
+        <x:v>82.3</x:v>
       </x:c>
       <x:c r="BD6" s="3" t="n">
         <x:v>82.4</x:v>
       </x:c>
       <x:c r="BE6" s="3" t="n">
-        <x:v>84.4</x:v>
+        <x:v>84.5</x:v>
       </x:c>
       <x:c r="BF6" s="3" t="n">
-        <x:v>85.2</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="BG6" s="3" t="n">
-        <x:v>86.2</x:v>
+        <x:v>86.3</x:v>
       </x:c>
       <x:c r="BH6" s="3" t="n">
         <x:v>85.1</x:v>
@@ -2246,7 +2258,7 @@
         <x:v>84.4</x:v>
       </x:c>
       <x:c r="BK6" s="3" t="n">
-        <x:v>84.9</x:v>
+        <x:v>84.7</x:v>
       </x:c>
       <x:c r="BL6" s="3" t="n">
         <x:v>85.6</x:v>
@@ -2255,10 +2267,10 @@
         <x:v>85.6</x:v>
       </x:c>
       <x:c r="BN6" s="3" t="n">
+        <x:v>87.3</x:v>
+      </x:c>
+      <x:c r="BO6" s="3" t="n">
         <x:v>87.6</x:v>
-      </x:c>
-      <x:c r="BO6" s="3" t="n">
-        <x:v>87.4</x:v>
       </x:c>
       <x:c r="BP6" s="3" t="n">
         <x:v>88.1</x:v>
@@ -2267,16 +2279,16 @@
         <x:v>88.6</x:v>
       </x:c>
       <x:c r="BR6" s="3" t="n">
+        <x:v>86.5</x:v>
+      </x:c>
+      <x:c r="BS6" s="3" t="n">
         <x:v>86.7</x:v>
       </x:c>
-      <x:c r="BS6" s="3" t="n">
-        <x:v>86.5</x:v>
-      </x:c>
       <x:c r="BT6" s="3" t="n">
-        <x:v>87</x:v>
+        <x:v>87.1</x:v>
       </x:c>
       <x:c r="BU6" s="3" t="n">
-        <x:v>87.2</x:v>
+        <x:v>87.3</x:v>
       </x:c>
       <x:c r="BV6" s="3" t="n">
         <x:v>87</x:v>
@@ -2288,7 +2300,7 @@
         <x:v>83.9</x:v>
       </x:c>
       <x:c r="BY6" s="3" t="n">
-        <x:v>81</x:v>
+        <x:v>81.1</x:v>
       </x:c>
       <x:c r="BZ6" s="3" t="n">
         <x:v>79.1</x:v>
@@ -2312,10 +2324,10 @@
         <x:v>89.8</x:v>
       </x:c>
       <x:c r="CG6" s="3" t="n">
-        <x:v>89.8</x:v>
+        <x:v>89.6</x:v>
       </x:c>
       <x:c r="CH6" s="3" t="n">
-        <x:v>89.7</x:v>
+        <x:v>89.6</x:v>
       </x:c>
       <x:c r="CI6" s="3" t="n">
         <x:v>89.4</x:v>
@@ -2324,19 +2336,19 @@
         <x:v>88.7</x:v>
       </x:c>
       <x:c r="CK6" s="3" t="n">
-        <x:v>89.3</x:v>
+        <x:v>89.2</x:v>
       </x:c>
       <x:c r="CL6" s="3" t="n">
-        <x:v>88.1</x:v>
+        <x:v>87.9</x:v>
       </x:c>
       <x:c r="CM6" s="3" t="n">
-        <x:v>90.5</x:v>
+        <x:v>90.6</x:v>
       </x:c>
       <x:c r="CN6" s="3" t="n">
-        <x:v>87.3</x:v>
+        <x:v>87.4</x:v>
       </x:c>
       <x:c r="CO6" s="3" t="n">
-        <x:v>87.3</x:v>
+        <x:v>87.4</x:v>
       </x:c>
       <x:c r="CP6" s="3" t="n">
         <x:v>88.6</x:v>
@@ -2345,10 +2357,10 @@
         <x:v>88.1</x:v>
       </x:c>
       <x:c r="CR6" s="3" t="n">
-        <x:v>87</x:v>
+        <x:v>86.9</x:v>
       </x:c>
       <x:c r="CS6" s="3" t="n">
-        <x:v>87.3</x:v>
+        <x:v>87.5</x:v>
       </x:c>
       <x:c r="CT6" s="3" t="n">
         <x:v>90.3</x:v>
@@ -2357,99 +2369,102 @@
         <x:v>90.9</x:v>
       </x:c>
       <x:c r="CV6" s="3" t="n">
+        <x:v>92.2</x:v>
+      </x:c>
+      <x:c r="CW6" s="3" t="n">
+        <x:v>93.2</x:v>
+      </x:c>
+      <x:c r="CX6" s="3" t="n">
+        <x:v>91.6</x:v>
+      </x:c>
+      <x:c r="CY6" s="3" t="n">
+        <x:v>91.5</x:v>
+      </x:c>
+      <x:c r="CZ6" s="3" t="n">
         <x:v>92.3</x:v>
       </x:c>
-      <x:c r="CW6" s="3" t="n">
-        <x:v>92.8</x:v>
-      </x:c>
-      <x:c r="CX6" s="3" t="n">
-        <x:v>91.5</x:v>
-      </x:c>
-      <x:c r="CY6" s="3" t="n">
-        <x:v>91.6</x:v>
-      </x:c>
-      <x:c r="CZ6" s="3" t="n">
-        <x:v>92.7</x:v>
-      </x:c>
       <x:c r="DA6" s="3" t="n">
-        <x:v>91.4</x:v>
+        <x:v>91.9</x:v>
       </x:c>
       <x:c r="DB6" s="3" t="n">
         <x:v>90.6</x:v>
       </x:c>
       <x:c r="DC6" s="3" t="n">
-        <x:v>91.3</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="DD6" s="3" t="n">
+        <x:v>90.4</x:v>
+      </x:c>
+      <x:c r="DE6" s="3" t="n">
+        <x:v>87.8</x:v>
+      </x:c>
+      <x:c r="DF6" s="3" t="n">
+        <x:v>89.8</x:v>
+      </x:c>
+      <x:c r="DG6" s="3" t="n">
+        <x:v>90.1</x:v>
+      </x:c>
+      <x:c r="DH6" s="3" t="n">
+        <x:v>89.6</x:v>
+      </x:c>
+      <x:c r="DI6" s="3" t="n">
+        <x:v>92.4</x:v>
+      </x:c>
+      <x:c r="DJ6" s="3" t="n">
+        <x:v>91.1</x:v>
+      </x:c>
+      <x:c r="DK6" s="3" t="n">
+        <x:v>92.5</x:v>
+      </x:c>
+      <x:c r="DL6" s="3" t="n">
+        <x:v>92.1</x:v>
+      </x:c>
+      <x:c r="DM6" s="3" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="DN6" s="3" t="n">
+        <x:v>92.1</x:v>
+      </x:c>
+      <x:c r="DO6" s="3" t="n">
         <x:v>90.9</x:v>
       </x:c>
-      <x:c r="DE6" s="3" t="n">
-        <x:v>87.2</x:v>
-      </x:c>
-      <x:c r="DF6" s="3" t="n">
-        <x:v>90.2</x:v>
-      </x:c>
-      <x:c r="DG6" s="3" t="n">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="DH6" s="3" t="n">
-        <x:v>90.1</x:v>
-      </x:c>
-      <x:c r="DI6" s="3" t="n">
-        <x:v>91.3</x:v>
-      </x:c>
-      <x:c r="DJ6" s="3" t="n">
-        <x:v>91.6</x:v>
-      </x:c>
-      <x:c r="DK6" s="3" t="n">
-        <x:v>92.6</x:v>
-      </x:c>
-      <x:c r="DL6" s="3" t="n">
-        <x:v>92.6</x:v>
-      </x:c>
-      <x:c r="DM6" s="3" t="n">
-        <x:v>87.7</x:v>
-      </x:c>
-      <x:c r="DN6" s="3" t="n">
-        <x:v>92.7</x:v>
-      </x:c>
-      <x:c r="DO6" s="3" t="n">
-        <x:v>91</x:v>
-      </x:c>
       <x:c r="DP6" s="3" t="n">
-        <x:v>94</x:v>
+        <x:v>93.5</x:v>
       </x:c>
       <x:c r="DQ6" s="3" t="n">
-        <x:v>91</x:v>
+        <x:v>92.3</x:v>
       </x:c>
       <x:c r="DR6" s="3" t="n">
-        <x:v>85.6</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="DS6" s="3" t="n">
+        <x:v>84.6</x:v>
+      </x:c>
+      <x:c r="DT6" s="3" t="n">
         <x:v>84.7</x:v>
       </x:c>
-      <x:c r="DT6" s="3" t="n">
-        <x:v>85</x:v>
-      </x:c>
       <x:c r="DU6" s="3" t="n">
-        <x:v>86.2</x:v>
+        <x:v>87.1</x:v>
       </x:c>
       <x:c r="DV6" s="3" t="n">
-        <x:v>87.2</x:v>
+        <x:v>86.8</x:v>
       </x:c>
       <x:c r="DW6" s="3" t="n">
-        <x:v>95</x:v>
+        <x:v>94.7</x:v>
       </x:c>
       <x:c r="DX6" s="3" t="n">
-        <x:v>94.6</x:v>
+        <x:v>94.4</x:v>
       </x:c>
       <x:c r="DY6" s="3" t="n">
-        <x:v>95.1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:129">
+        <x:v>95.8</x:v>
+      </x:c>
+      <x:c r="DZ6" s="3" t="n">
+        <x:v>95.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:130">
       <x:c r="A7" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B7" s="3" t="n">
         <x:v>87.3</x:v>
@@ -2464,7 +2479,7 @@
         <x:v>87.3</x:v>
       </x:c>
       <x:c r="F7" s="3" t="n">
-        <x:v>85.4</x:v>
+        <x:v>85.3</x:v>
       </x:c>
       <x:c r="G7" s="3" t="n">
         <x:v>83.6</x:v>
@@ -2533,7 +2548,7 @@
         <x:v>87.5</x:v>
       </x:c>
       <x:c r="AC7" s="3" t="n">
-        <x:v>88.2</x:v>
+        <x:v>88.1</x:v>
       </x:c>
       <x:c r="AD7" s="3" t="n">
         <x:v>87.1</x:v>
@@ -2569,7 +2584,7 @@
         <x:v>88.9</x:v>
       </x:c>
       <x:c r="AO7" s="3" t="n">
-        <x:v>89.2</x:v>
+        <x:v>89.3</x:v>
       </x:c>
       <x:c r="AP7" s="3" t="n">
         <x:v>90.1</x:v>
@@ -2764,7 +2779,7 @@
         <x:v>88.8</x:v>
       </x:c>
       <x:c r="DB7" s="3" t="n">
-        <x:v>89.2</x:v>
+        <x:v>89.1</x:v>
       </x:c>
       <x:c r="DC7" s="3" t="n">
         <x:v>88.8</x:v>
@@ -2794,10 +2809,10 @@
         <x:v>90.7</x:v>
       </x:c>
       <x:c r="DL7" s="3" t="n">
-        <x:v>91</x:v>
+        <x:v>90.9</x:v>
       </x:c>
       <x:c r="DM7" s="3" t="n">
-        <x:v>90.7</x:v>
+        <x:v>90.8</x:v>
       </x:c>
       <x:c r="DN7" s="3" t="n">
         <x:v>90.8</x:v>
@@ -2809,7 +2824,7 @@
         <x:v>91.1</x:v>
       </x:c>
       <x:c r="DQ7" s="3" t="n">
-        <x:v>89.4</x:v>
+        <x:v>89.5</x:v>
       </x:c>
       <x:c r="DR7" s="3" t="n">
         <x:v>88.8</x:v>
@@ -2821,7 +2836,7 @@
         <x:v>85.9</x:v>
       </x:c>
       <x:c r="DU7" s="3" t="n">
-        <x:v>87.8</x:v>
+        <x:v>87.9</x:v>
       </x:c>
       <x:c r="DV7" s="3" t="n">
         <x:v>89.4</x:v>
@@ -2830,142 +2845,145 @@
         <x:v>91.1</x:v>
       </x:c>
       <x:c r="DX7" s="3" t="n">
-        <x:v>90.6</x:v>
+        <x:v>90.5</x:v>
       </x:c>
       <x:c r="DY7" s="3" t="n">
-        <x:v>90.7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:129">
+        <x:v>90.2</x:v>
+      </x:c>
+      <x:c r="DZ7" s="3" t="n">
+        <x:v>90.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:130">
       <x:c r="A9" s="4" t="s">
-        <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:129">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:130">
       <x:c r="A10" s="4" t="s">
-        <x:v>134</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:129">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:130">
       <x:c r="A11" s="4" t="s">
-        <x:v>135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:129">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:130">
       <x:c r="A13" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:129">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:130">
       <x:c r="A14" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:129">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:130">
       <x:c r="A16" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:129">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:130">
       <x:c r="A17" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:129">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:130">
       <x:c r="A19" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:129">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:130">
       <x:c r="A20" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:129">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:130">
       <x:c r="A21" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:129">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:130">
       <x:c r="A22" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:129">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:130">
       <x:c r="A24" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:129">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:130">
       <x:c r="A25" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:129">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:130">
       <x:c r="A26" s="0" t="s">
-        <x:v>146</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:129">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:130">
       <x:c r="A31" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:129">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:130">
       <x:c r="A32" s="0" t="s">
-        <x:v>148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:129">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:130">
       <x:c r="A34" s="0" t="s">
-        <x:v>149</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:129">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:130">
       <x:c r="A35" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:129">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:130">
       <x:c r="A40" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:129">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:130">
       <x:c r="A42" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:129">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:130">
       <x:c r="A44" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:129">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:130">
       <x:c r="A46" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:129">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:130">
       <x:c r="A47" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:129">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:130">
       <x:c r="A49" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:129">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:130">
       <x:c r="A50" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
-    <x:mergeCell ref="A9:DY9"/>
-    <x:mergeCell ref="A10:DY10"/>
-    <x:mergeCell ref="A11:DY11"/>
+    <x:mergeCell ref="A9:DZ9"/>
+    <x:mergeCell ref="A10:DZ10"/>
+    <x:mergeCell ref="A11:DZ11"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
